--- a/Output/Modelling/XGBoost/Tables/include_previous_Most_Complex_Model_Classification_Report.xlsx
+++ b/Output/Modelling/XGBoost/Tables/include_previous_Most_Complex_Model_Classification_Report.xlsx
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.9604</t>
+          <t>0.8846</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9327</t>
+          <t>0.9583</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.9463</t>
+          <t>0.9200</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -517,54 +517,54 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.8846</t>
+          <t>0.9604</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9583</t>
+          <t>0.9327</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.9200</t>
+          <t>0.9463</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>208</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.9359</t>
+          <t>0.9669</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9481</t>
+          <t>0.9669</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.9419</t>
+          <t>0.9669</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>363</t>
         </is>
       </c>
     </row>
@@ -598,54 +598,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.9669</t>
+          <t>0.9359</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9669</t>
+          <t>0.9481</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.9669</t>
+          <t>0.9419</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.8621</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.9615</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.9091</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -679,27 +679,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.8621</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9615</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.9091</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
     </row>
